--- a/raw-data/wisconsin_raw_2024.xlsx
+++ b/raw-data/wisconsin_raw_2024.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ey239/Github/IMT/raw-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7843457-F49F-1E48-98BC-A679444ED453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83BC0E2A-C067-7E43-9CBD-E382E0668490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4180" yWindow="-27680" windowWidth="26860" windowHeight="15960" xr2:uid="{0B132D00-29F1-AB48-A6AD-646657250CB8}"/>
   </bookViews>
@@ -219,7 +219,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -244,6 +244,12 @@
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -304,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -323,6 +329,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -660,7 +667,7 @@
   <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -767,6 +774,9 @@
       <c r="N2" s="11">
         <v>436</v>
       </c>
+      <c r="O2" s="12">
+        <v>21.256666670000001</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -811,6 +821,9 @@
       <c r="N3" s="11">
         <v>202.7</v>
       </c>
+      <c r="O3" s="12">
+        <v>21.643333330000001</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -855,6 +868,9 @@
       <c r="N4" s="11">
         <v>409.8</v>
       </c>
+      <c r="O4" s="12">
+        <v>21.38</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -899,6 +915,9 @@
       <c r="N5" s="11">
         <v>327.3</v>
       </c>
+      <c r="O5" s="12">
+        <v>21.27333333</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -943,6 +962,9 @@
       <c r="N6" s="11">
         <v>123.7</v>
       </c>
+      <c r="O6" s="12">
+        <v>20.00333333</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -987,6 +1009,9 @@
       <c r="N7" s="11">
         <v>240</v>
       </c>
+      <c r="O7" s="12">
+        <v>21.016666669999999</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -1031,6 +1056,9 @@
       <c r="N8" s="11">
         <v>130.30000000000001</v>
       </c>
+      <c r="O8" s="12">
+        <v>21.41</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -1075,6 +1103,9 @@
       <c r="N9" s="11">
         <v>328.7</v>
       </c>
+      <c r="O9" s="12">
+        <v>22.45333333</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -1119,6 +1150,9 @@
       <c r="N10" s="11">
         <v>291.89999999999998</v>
       </c>
+      <c r="O10" s="12">
+        <v>21.536666669999999</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -1163,6 +1197,9 @@
       <c r="N11" s="11">
         <v>397.8</v>
       </c>
+      <c r="O11" s="12">
+        <v>22.076666670000002</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -1207,6 +1244,9 @@
       <c r="N12" s="11">
         <v>182</v>
       </c>
+      <c r="O12" s="12">
+        <v>20.86333333</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -1251,6 +1291,9 @@
       <c r="N13" s="11">
         <v>447.2</v>
       </c>
+      <c r="O13" s="12">
+        <v>20.646666669999998</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -1295,6 +1338,9 @@
       <c r="N14" s="11">
         <v>303.89999999999998</v>
       </c>
+      <c r="O14" s="12">
+        <v>22.356666669999999</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -1339,6 +1385,9 @@
       <c r="N15" s="11">
         <v>318.5</v>
       </c>
+      <c r="O15" s="12">
+        <v>22.27333333</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -1383,8 +1432,11 @@
       <c r="N16" s="11">
         <v>80.8</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="12">
+        <v>19.856666669999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -1427,8 +1479,11 @@
       <c r="N17" s="11">
         <v>437.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="12">
+        <v>20.323333330000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -1471,8 +1526,11 @@
       <c r="N18" s="11">
         <v>153.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="12">
+        <v>21.923333329999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -1515,8 +1573,11 @@
       <c r="N19" s="11">
         <v>379</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="12">
+        <v>19.45333333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -1559,8 +1620,11 @@
       <c r="N20" s="11">
         <v>378.6</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="12">
+        <v>20.903333329999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -1603,8 +1667,11 @@
       <c r="N21" s="11">
         <v>232.7</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="12">
+        <v>22.993333329999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -1647,8 +1714,11 @@
       <c r="N22" s="11">
         <v>409</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="12">
+        <v>20.47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -1691,8 +1761,11 @@
       <c r="N23" s="11">
         <v>150.1</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="12">
+        <v>20.87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -1735,8 +1808,11 @@
       <c r="N24" s="11">
         <v>433</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="12">
+        <v>20.75333333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -1779,8 +1855,11 @@
       <c r="N25" s="11">
         <v>330.3</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="12">
+        <v>22.16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -1823,8 +1902,11 @@
       <c r="N26" s="11">
         <v>30.9</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="12">
+        <v>16.88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -1867,8 +1949,11 @@
       <c r="N27" s="11">
         <v>388.8</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O27" s="12">
+        <v>20.303333330000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -1911,8 +1996,11 @@
       <c r="N28" s="11">
         <v>117.1</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="12">
+        <v>21.54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -1955,8 +2043,11 @@
       <c r="N29" s="11">
         <v>237.1</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="12">
+        <v>21.393333330000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -1999,8 +2090,11 @@
       <c r="N30" s="11">
         <v>189.6</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="12">
+        <v>21.293333329999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -2043,8 +2137,11 @@
       <c r="N31" s="11">
         <v>244.6</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="12">
+        <v>20.763333329999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -2087,8 +2184,11 @@
       <c r="N32" s="11">
         <v>30.3</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="12">
+        <v>21.36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -2131,8 +2231,11 @@
       <c r="N33" s="11">
         <v>381.3</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="12">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -2175,8 +2278,11 @@
       <c r="N34" s="11">
         <v>150.80000000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="12">
+        <v>20.84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -2219,8 +2325,11 @@
       <c r="N35" s="11">
         <v>80.900000000000006</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="12">
+        <v>21.903333329999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>46</v>
       </c>
@@ -2263,8 +2372,11 @@
       <c r="N36" s="11">
         <v>443.5</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O36" s="12">
+        <v>21.45333333</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>49</v>
       </c>
@@ -2306,6 +2418,9 @@
       </c>
       <c r="N37" s="11">
         <v>364.6</v>
+      </c>
+      <c r="O37" s="12">
+        <v>22.39</v>
       </c>
     </row>
   </sheetData>
